--- a/Baseline 2/Documento de Especificação Suplementar/Cartões Requisitos/Documento Atributos.xlsx
+++ b/Baseline 2/Documento de Especificação Suplementar/Cartões Requisitos/Documento Atributos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tas\Documents\OneDrive\3º Semestre\Engenharia de Software\Atividades\Baseline 2\Documento de Especificação Suplementar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tas\Documents\GitHub\Atividades\Baseline 2\Documento de Especificação Suplementar\Cartões Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="56">
   <si>
     <t>Identificador</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>A primeira restrição exige que o sistema seja finalizado, entregue até o dia 10 de junho de 2016.</t>
+  </si>
+  <si>
+    <t>IDR_2.2.4</t>
+  </si>
+  <si>
+    <t>Limite de valores para potenciação</t>
+  </si>
+  <si>
+    <t>A operação potenciação tem como limite 20 para a base e 10 para o expoente.</t>
+  </si>
+  <si>
+    <t>2.2.4</t>
   </si>
 </sst>
 </file>
@@ -759,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -819,9 +831,39 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -829,9 +871,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -855,16 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -876,45 +906,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -939,13 +930,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T144"/>
+  <dimension ref="B2:V149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D90" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,7 +1259,7 @@
     <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="5" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="16" width="6.33203125" customWidth="1"/>
+    <col min="8" max="17" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1256,55 +1267,55 @@
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="35"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="29"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="56"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
@@ -1321,13 +1332,13 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="29" t="s">
@@ -1335,65 +1346,65 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="26"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="37"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="35"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="29"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="56"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="12" t="s">
@@ -1410,13 +1421,13 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="29" t="s">
@@ -1424,10 +1435,10 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="26"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="30"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="9"/>
@@ -1439,55 +1450,55 @@
       <c r="B25" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="37"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="35"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
     </row>
     <row r="28" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="53"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="56"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
     </row>
     <row r="32" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="12" t="s">
@@ -1504,13 +1515,13 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="29" t="s">
@@ -1518,65 +1529,65 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="26"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="30"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
     </row>
     <row r="35" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="37"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="35"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="40"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
     </row>
     <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="29"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="53"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="55"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="32"/>
     </row>
     <row r="42" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="56"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
     </row>
     <row r="43" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="12" t="s">
@@ -1593,13 +1604,13 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="29" t="s">
@@ -1607,65 +1618,65 @@
       </c>
     </row>
     <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="26"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="30"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
     </row>
     <row r="46" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="42"/>
     </row>
     <row r="48" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="37"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="29"/>
     </row>
     <row r="49" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="35"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="40"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
     </row>
     <row r="50" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="43"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
     </row>
     <row r="51" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="29"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="53"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="55"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32"/>
     </row>
     <row r="53" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="56"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="40"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="35"/>
     </row>
     <row r="54" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
@@ -1682,13 +1693,13 @@
       </c>
     </row>
     <row r="55" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="29" t="s">
@@ -1696,65 +1707,65 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="26"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="30"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="39"/>
     </row>
     <row r="57" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="42"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="60"/>
-      <c r="E59" s="61"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="54"/>
     </row>
     <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="58"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="64"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="57"/>
     </row>
     <row r="61" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="43"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="49"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="29"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="53"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="55"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="32"/>
     </row>
     <row r="64" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="56"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="35"/>
     </row>
     <row r="65" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="12" t="s">
@@ -1771,13 +1782,13 @@
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="29" t="s">
@@ -1785,13 +1796,13 @@
       </c>
     </row>
     <row r="67" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="26"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="30"/>
-    </row>
-    <row r="90" spans="7:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="91" spans="7:16" ht="25.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="36"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="39"/>
+    </row>
+    <row r="90" spans="7:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="7:17" ht="25.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G91" s="14" t="s">
         <v>29</v>
       </c>
@@ -1805,34 +1816,35 @@
         <v>32</v>
       </c>
       <c r="K91" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L91" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L91" s="15" t="s">
+      <c r="M91" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M91" s="15" t="s">
+      <c r="N91" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N91" s="15" t="s">
+      <c r="O91" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O91" s="15" t="s">
+      <c r="P91" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="P91" s="16" t="s">
+      <c r="Q91" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="7:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="7:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="G92" s="17" t="s">
         <v>30</v>
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
-      <c r="K92" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="K92" s="5"/>
       <c r="L92" s="5" t="s">
         <v>39</v>
       </c>
@@ -1842,38 +1854,42 @@
       <c r="N92" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O92" s="5"/>
-      <c r="P92" s="18" t="s">
+      <c r="O92" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="93" spans="7:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="P92" s="5"/>
+      <c r="Q92" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="7:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="G93" s="17" t="s">
         <v>31</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
-      <c r="K93" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="K93" s="2"/>
       <c r="L93" s="2" t="s">
         <v>40</v>
       </c>
       <c r="M93" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N93" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N93" s="2" t="s">
+      <c r="O93" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O93" s="2" t="s">
+      <c r="P93" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P93" s="19" t="s">
+      <c r="Q93" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="7:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="7:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="G94" s="17" t="s">
         <v>32</v>
       </c>
@@ -1885,440 +1901,597 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
-      <c r="P94" s="20"/>
-    </row>
-    <row r="95" spans="7:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="P94" s="1"/>
+      <c r="Q94" s="20"/>
+    </row>
+    <row r="95" spans="7:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="G95" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H95" s="7"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="7:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="G96" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H95" s="6"/>
-      <c r="I95" s="2" t="s">
+      <c r="H96" s="6"/>
+      <c r="I96" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2" t="s">
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O95" s="2"/>
-      <c r="P95" s="19" t="s">
+      <c r="P96" s="2"/>
+      <c r="Q96" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="7:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G96" s="17" t="s">
+    <row r="97" spans="2:22" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="G97" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H96" s="7"/>
-      <c r="I96" s="1" t="s">
+      <c r="H97" s="7"/>
+      <c r="I97" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1" t="s">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="O97" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O96" s="1"/>
-      <c r="P96" s="20" t="s">
+      <c r="P97" s="1"/>
+      <c r="Q97" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="2:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G97" s="17" t="s">
+    <row r="98" spans="2:22" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="G98" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H97" s="6"/>
-      <c r="I97" s="2" t="s">
+      <c r="H98" s="6"/>
+      <c r="I98" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2" t="s">
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L97" s="2" t="s">
+      <c r="M98" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2" t="s">
+      <c r="N98" s="2"/>
+      <c r="O98" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O97" s="2" t="s">
+      <c r="P98" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P97" s="19"/>
-    </row>
-    <row r="98" spans="2:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G98" s="17" t="s">
+      <c r="Q98" s="19"/>
+    </row>
+    <row r="99" spans="2:22" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="G99" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H98" s="7"/>
-      <c r="I98" s="1" t="s">
+      <c r="H99" s="7"/>
+      <c r="I99" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1" t="s">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="M99" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M98" s="1" t="s">
+      <c r="N99" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1" t="s">
+      <c r="O99" s="1"/>
+      <c r="P99" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P98" s="20" t="s">
+      <c r="Q99" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="T98" s="67"/>
-    </row>
-    <row r="99" spans="2:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G99" s="17" t="s">
+      <c r="U99" s="10"/>
+      <c r="V99" s="10"/>
+    </row>
+    <row r="100" spans="2:22" ht="28.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="G100" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H99" s="24"/>
-      <c r="I99" s="23" t="s">
+      <c r="H100" s="24"/>
+      <c r="I100" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="23"/>
-      <c r="M99" s="23" t="s">
+      <c r="J100" s="23"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="23"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="N99" s="23" t="s">
+      <c r="O100" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="O99" s="23"/>
-      <c r="P99" s="19"/>
-    </row>
-    <row r="100" spans="2:20" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G100" s="21" t="s">
+      <c r="P100" s="23"/>
+      <c r="Q100" s="19"/>
+    </row>
+    <row r="101" spans="2:22" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G101" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H100" s="65"/>
-      <c r="I100" s="65" t="s">
+      <c r="H101" s="25"/>
+      <c r="I101" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J100" s="65"/>
-      <c r="K100" s="65" t="s">
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="L100" s="65" t="s">
+      <c r="M101" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="M100" s="65"/>
-      <c r="N100" s="65"/>
-      <c r="O100" s="65"/>
-      <c r="P100" s="66"/>
-    </row>
-    <row r="101" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="10"/>
-    </row>
-    <row r="113" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="11" t="s">
+      <c r="N101" s="25"/>
+      <c r="O101" s="25"/>
+      <c r="P101" s="25"/>
+      <c r="Q101" s="26"/>
+    </row>
+    <row r="102" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="10"/>
+    </row>
+    <row r="106" spans="2:22" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C113" s="31" t="s">
+      <c r="C106" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D113" s="32"/>
-      <c r="E113" s="33"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="42"/>
+    </row>
+    <row r="107" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" s="28"/>
+      <c r="E107" s="29"/>
+    </row>
+    <row r="108" spans="2:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="44"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="35"/>
+    </row>
+    <row r="109" spans="2:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="48"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="49"/>
+    </row>
+    <row r="110" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="29"/>
+    </row>
+    <row r="111" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="30"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="32"/>
+    </row>
+    <row r="112" spans="2:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="33"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="35"/>
+    </row>
+    <row r="113" spans="2:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="114" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C114" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D114" s="37"/>
-      <c r="E114" s="29"/>
-    </row>
-    <row r="115" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="35"/>
+      <c r="B114" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="36"/>
       <c r="C115" s="38"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="40"/>
-    </row>
-    <row r="116" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="41" t="s">
+      <c r="D115" s="38"/>
+      <c r="E115" s="39"/>
+    </row>
+    <row r="116" spans="2:5" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="117" spans="2:5" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="41"/>
+      <c r="E117" s="42"/>
+    </row>
+    <row r="118" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C118" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D118" s="28"/>
+      <c r="E118" s="29"/>
+    </row>
+    <row r="119" spans="2:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="44"/>
+      <c r="C119" s="46"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="35"/>
+    </row>
+    <row r="120" spans="2:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="42"/>
-      <c r="D116" s="42"/>
-      <c r="E116" s="43"/>
-    </row>
-    <row r="117" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
-      <c r="E117" s="29"/>
-    </row>
-    <row r="118" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="53"/>
-      <c r="C118" s="54"/>
-      <c r="D118" s="54"/>
-      <c r="E118" s="55"/>
-    </row>
-    <row r="119" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="56"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="40"/>
-    </row>
-    <row r="120" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="12" t="s">
+      <c r="C120" s="48"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="49"/>
+    </row>
+    <row r="121" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="29"/>
+    </row>
+    <row r="122" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="30"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="32"/>
+    </row>
+    <row r="123" spans="2:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B123" s="33"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="35"/>
+    </row>
+    <row r="124" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C124" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D124" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="13" t="s">
+      <c r="E124" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="25" t="s">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B125" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C121" s="27" t="s">
+      <c r="C125" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="27" t="s">
+      <c r="D125" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E121" s="29" t="s">
+      <c r="E125" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="26"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="30"/>
-    </row>
-    <row r="123" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="11" t="s">
+    <row r="126" spans="2:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="36"/>
+      <c r="C126" s="38"/>
+      <c r="D126" s="38"/>
+      <c r="E126" s="39"/>
+    </row>
+    <row r="127" spans="2:5" s="10" customFormat="1" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C124" s="31" t="s">
+      <c r="C128" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D124" s="32"/>
-      <c r="E124" s="33"/>
-    </row>
-    <row r="125" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C125" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D125" s="37"/>
-      <c r="E125" s="29"/>
-    </row>
-    <row r="126" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="35"/>
-      <c r="C126" s="38"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="40"/>
-    </row>
-    <row r="127" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="41" t="s">
+      <c r="D128" s="41"/>
+      <c r="E128" s="42"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B129" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C129" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D129" s="28"/>
+      <c r="E129" s="29"/>
+    </row>
+    <row r="130" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="44"/>
+      <c r="C130" s="46"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="35"/>
+    </row>
+    <row r="131" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C127" s="42"/>
-      <c r="D127" s="42"/>
-      <c r="E127" s="43"/>
-    </row>
-    <row r="128" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="29"/>
-    </row>
-    <row r="129" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="53"/>
-      <c r="C129" s="54"/>
-      <c r="D129" s="54"/>
-      <c r="E129" s="55"/>
-    </row>
-    <row r="130" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="56"/>
-      <c r="C130" s="39"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="40"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B131" s="12" t="s">
+      <c r="C131" s="48"/>
+      <c r="D131" s="48"/>
+      <c r="E131" s="49"/>
+    </row>
+    <row r="132" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C132" s="59"/>
+      <c r="D132" s="59"/>
+      <c r="E132" s="60"/>
+    </row>
+    <row r="133" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="61"/>
+      <c r="C133" s="62"/>
+      <c r="D133" s="62"/>
+      <c r="E133" s="63"/>
+    </row>
+    <row r="134" spans="2:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="64"/>
+      <c r="C134" s="65"/>
+      <c r="D134" s="65"/>
+      <c r="E134" s="66"/>
+    </row>
+    <row r="135" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C135" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D135" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E131" s="13" t="s">
+      <c r="E135" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B132" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C132" s="27" t="s">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B136" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E136" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="27" t="s">
+    </row>
+    <row r="137" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B137" s="36"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="39"/>
+    </row>
+    <row r="138" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="139" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" s="41"/>
+      <c r="E139" s="42"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B140" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C140" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D140" s="28"/>
+      <c r="E140" s="29"/>
+    </row>
+    <row r="141" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B141" s="44"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="35"/>
+    </row>
+    <row r="142" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B142" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="48"/>
+      <c r="D142" s="48"/>
+      <c r="E142" s="49"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B143" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="29"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B144" s="30"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="32"/>
+    </row>
+    <row r="145" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="33"/>
+      <c r="C145" s="34"/>
+      <c r="D145" s="34"/>
+      <c r="E145" s="35"/>
+    </row>
+    <row r="146" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B146" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B147" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E132" s="29" t="s">
+      <c r="E147" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="26"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="30"/>
-    </row>
-    <row r="134" spans="2:5" s="10" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B135" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C135" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D135" s="32"/>
-      <c r="E135" s="33"/>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B136" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C136" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D136" s="37"/>
-      <c r="E136" s="29"/>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B137" s="35"/>
-      <c r="C137" s="38"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="40"/>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B138" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" s="42"/>
-      <c r="D138" s="42"/>
-      <c r="E138" s="43"/>
-    </row>
-    <row r="139" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C139" s="45"/>
-      <c r="D139" s="45"/>
-      <c r="E139" s="46"/>
-    </row>
-    <row r="140" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="47"/>
-      <c r="C140" s="48"/>
-      <c r="D140" s="48"/>
-      <c r="E140" s="49"/>
-    </row>
-    <row r="141" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="50"/>
-      <c r="C141" s="51"/>
-      <c r="D141" s="51"/>
-      <c r="E141" s="52"/>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B142" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E142" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B143" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C143" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E143" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B144" s="26"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
-      <c r="E144" s="30"/>
-    </row>
+    <row r="148" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="36"/>
+      <c r="C148" s="38"/>
+      <c r="D148" s="38"/>
+      <c r="E148" s="39"/>
+    </row>
+    <row r="149" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="B40:E42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="B29:E31"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="B7:E9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B6:E6"/>
+  <mergeCells count="90">
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:E141"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="B143:E145"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:E130"/>
+    <mergeCell ref="B131:E131"/>
+    <mergeCell ref="B132:E134"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:E119"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B121:E123"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:E108"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B110:E112"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E64"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E53"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B37:B38"/>
@@ -2335,51 +2508,26 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:E27"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E64"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:E115"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="B117:E119"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:E126"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B128:E130"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:E137"/>
-    <mergeCell ref="B138:E138"/>
-    <mergeCell ref="B139:E141"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="B7:E9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B29:E31"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B40:E42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
